--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\GameThing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33696CDC-9DD4-4DA3-BF8F-2D78E8D4F9EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07ABD69-822B-47BE-BCCB-2F79B25A384B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B43DC27E-312F-4ABF-897F-B8623FBBEEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
     <sheet name="Cards" sheetId="2" r:id="rId2"/>
+    <sheet name="Card Brainstorming" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="425">
   <si>
     <t>Magic</t>
   </si>
@@ -48,15 +50,9 @@
     <t>Damage</t>
   </si>
   <si>
-    <t>Melee</t>
-  </si>
-  <si>
     <t>Healing</t>
   </si>
   <si>
-    <t>Self</t>
-  </si>
-  <si>
     <t>Support</t>
   </si>
   <si>
@@ -69,9 +65,6 @@
     <t>Movement</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>Reckless</t>
   </si>
   <si>
@@ -330,49 +323,991 @@
     <t>Falconer</t>
   </si>
   <si>
-    <t>When below half health, gain +level*10% strength.</t>
-  </si>
-  <si>
-    <t>Lose 1 Armour, do 200% Str damage at range 1.</t>
-  </si>
-  <si>
     <t>Lose 1 Health, gain +100% Intelligence for 5 turns.</t>
   </si>
   <si>
-    <t>Give a character at range 5 +1 card to play this turn.</t>
-  </si>
-  <si>
-    <t>Gain +10 movement this turn.</t>
-  </si>
-  <si>
     <t>Agility/20% chance to deal 200% Strength damage at range 5.</t>
   </si>
   <si>
     <t>Deal 150% Intelligence damage at range 5.</t>
   </si>
   <si>
-    <t>Deal 5 damage at range 10.</t>
-  </si>
-  <si>
-    <t>Gain 5 Armour.</t>
-  </si>
-  <si>
-    <t>Give a character at range 3 70% chance to skip next turn.</t>
-  </si>
-  <si>
-    <t>Give a character +5 health at range 1.</t>
-  </si>
-  <si>
     <t>Give a character +2 health at range 5.</t>
   </si>
   <si>
-    <t>Give a character -2 movement for 3 turns.</t>
-  </si>
-  <si>
-    <t>Give characters within 2 +1 Strength, Agility and Intelligence</t>
-  </si>
-  <si>
-    <t>Play one less card next, give characters within 3 +1 Armour for 3 turns.</t>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t>Mechanic</t>
+  </si>
+  <si>
+    <t>Physicist</t>
+  </si>
+  <si>
+    <t>Paladin</t>
+  </si>
+  <si>
+    <t>Gambler</t>
+  </si>
+  <si>
+    <t>cards have to allow that support is a good idea, not just killing stuff</t>
+  </si>
+  <si>
+    <t>Fell Seal</t>
+  </si>
+  <si>
+    <t>Mercenary</t>
+  </si>
+  <si>
+    <t>Mender</t>
+  </si>
+  <si>
+    <t>Scoundrel</t>
+  </si>
+  <si>
+    <t>Plague Doctor</t>
+  </si>
+  <si>
+    <t>Alchmystic</t>
+  </si>
+  <si>
+    <t>Druid</t>
+  </si>
+  <si>
+    <t>Fellblade</t>
+  </si>
+  <si>
+    <t>Gadgeteer</t>
+  </si>
+  <si>
+    <t>Reaver</t>
+  </si>
+  <si>
+    <t>Peddler</t>
+  </si>
+  <si>
+    <t>Warmage</t>
+  </si>
+  <si>
+    <t>Gunner</t>
+  </si>
+  <si>
+    <t>Duelist</t>
+  </si>
+  <si>
+    <t>Werewolf</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>Lich</t>
+  </si>
+  <si>
+    <t>Lord</t>
+  </si>
+  <si>
+    <t>Vessel</t>
+  </si>
+  <si>
+    <t>Marked</t>
+  </si>
+  <si>
+    <t>Demon Knight</t>
+  </si>
+  <si>
+    <t>Spymaster</t>
+  </si>
+  <si>
+    <t>Anatomist</t>
+  </si>
+  <si>
+    <t>Bounty Hunter</t>
+  </si>
+  <si>
+    <t>The Exiled</t>
+  </si>
+  <si>
+    <t>Athlete</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ability</t>
+  </si>
+  <si>
+    <t>Class Categories</t>
+  </si>
+  <si>
+    <t>Agility, Damage</t>
+  </si>
+  <si>
+    <t>Agility, Support</t>
+  </si>
+  <si>
+    <t>Agility, Defense</t>
+  </si>
+  <si>
+    <t>Agility, Movement</t>
+  </si>
+  <si>
+    <t>Strength, Damage</t>
+  </si>
+  <si>
+    <t>Strength, Healing</t>
+  </si>
+  <si>
+    <t>Strength, Defense</t>
+  </si>
+  <si>
+    <t>Strength, Ranged</t>
+  </si>
+  <si>
+    <t>Strength, Reckless</t>
+  </si>
+  <si>
+    <t>Int, Support</t>
+  </si>
+  <si>
+    <t>150% Strength damage between range 7-10</t>
+  </si>
+  <si>
+    <t>Short Bow</t>
+  </si>
+  <si>
+    <t>75% Strength damage, range 3</t>
+  </si>
+  <si>
+    <t>want 5 cards per class</t>
+  </si>
+  <si>
+    <t>Root Trap</t>
+  </si>
+  <si>
+    <t>Mobile Armour</t>
+  </si>
+  <si>
+    <t>Easy Ballad</t>
+  </si>
+  <si>
+    <t>Pact</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Deal 100% Intelligence damage at range 7.</t>
+  </si>
+  <si>
+    <t>Deal 1 damage at range 10.</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Spark</t>
+  </si>
+  <si>
+    <t>Shield Up</t>
+  </si>
+  <si>
+    <t>Give a character at range 1 70% chance to skip next turn.</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>Card Categories</t>
+  </si>
+  <si>
+    <t>Block next attack</t>
+  </si>
+  <si>
+    <t>Teleport but only play 1 card</t>
+  </si>
+  <si>
+    <t>Draw additional card</t>
+  </si>
+  <si>
+    <t>Draw a card and give one additional play</t>
+  </si>
+  <si>
+    <t>Give character armour</t>
+  </si>
+  <si>
+    <t>Deal damage and gain health</t>
+  </si>
+  <si>
+    <t>deal damage and gain armour</t>
+  </si>
+  <si>
+    <t>Deal damage within range</t>
+  </si>
+  <si>
+    <t>summon creatures</t>
+  </si>
+  <si>
+    <t>explode for damage</t>
+  </si>
+  <si>
+    <t>auto attack</t>
+  </si>
+  <si>
+    <t>attack immediately</t>
+  </si>
+  <si>
+    <t>if killed, split into smaller creatures</t>
+  </si>
+  <si>
+    <t>power equal to hand size</t>
+  </si>
+  <si>
+    <t>swarm</t>
+  </si>
+  <si>
+    <t>play card, draw another card and play another</t>
+  </si>
+  <si>
+    <t>when you play 2 cards from the same category in a row, gain buff to an affinity stat (like reckless-&gt;strength)</t>
+  </si>
+  <si>
+    <t>play additional card this turn and one fewer next turn</t>
+  </si>
+  <si>
+    <t>play additional card this turn, choose a character to play one fewer on it's next turn</t>
+  </si>
+  <si>
+    <t>When you take damage gain % of it back</t>
+  </si>
+  <si>
+    <t>replay all cards you played this game</t>
+  </si>
+  <si>
+    <t>heal all health to all players (ALL)</t>
+  </si>
+  <si>
+    <t>deal damage to all players (ALL)</t>
+  </si>
+  <si>
+    <t>draw card and copy it</t>
+  </si>
+  <si>
+    <t>draw card from specific category</t>
+  </si>
+  <si>
+    <t>regain all playable cards this turn</t>
+  </si>
+  <si>
+    <t>gain armour within range</t>
+  </si>
+  <si>
+    <t>remove 1 playable card from player (not 2)</t>
+  </si>
+  <si>
+    <t>play cards randomly</t>
+  </si>
+  <si>
+    <t>deal damage randomly within range</t>
+  </si>
+  <si>
+    <t>player discards a card (doesn't redraw until end of turn)</t>
+  </si>
+  <si>
+    <t>draw additional card for X turns</t>
+  </si>
+  <si>
+    <t>choose healing or damage</t>
+  </si>
+  <si>
+    <t>for X turns can only take 1 damage at a time</t>
+  </si>
+  <si>
+    <t>draw 2 cards, play immediately if it belongs to a certain category</t>
+  </si>
+  <si>
+    <t>discover a card</t>
+  </si>
+  <si>
+    <t>set health to % of total</t>
+  </si>
+  <si>
+    <t>remove all conditions</t>
+  </si>
+  <si>
+    <t>paired cards: big power if played in a row</t>
+  </si>
+  <si>
+    <t>draw card from discard pile</t>
+  </si>
+  <si>
+    <t>no duplicates in deck: get something</t>
+  </si>
+  <si>
+    <t>add random cards to hand</t>
+  </si>
+  <si>
+    <t>take 2 turns (characters) in a row</t>
+  </si>
+  <si>
+    <t>prevent character from going until very end of turn</t>
+  </si>
+  <si>
+    <t>when one character takes damage, gain health</t>
+  </si>
+  <si>
+    <t>when one character takes damage, deal damage to (melee?) attacker</t>
+  </si>
+  <si>
+    <t>repeat all cards from certain category played already</t>
+  </si>
+  <si>
+    <t>can't be targeted by cards of certain category</t>
+  </si>
+  <si>
+    <t>attack and buff players within range</t>
+  </si>
+  <si>
+    <t>restore health and draw cards</t>
+  </si>
+  <si>
+    <t>players within range discard cards</t>
+  </si>
+  <si>
+    <t>when attacked, deal damage within range</t>
+  </si>
+  <si>
+    <t>deal damage to 2 characters in melee range</t>
+  </si>
+  <si>
+    <t>deal damage to all characters in melee range</t>
+  </si>
+  <si>
+    <t>if holding a card of a certain category, gain something</t>
+  </si>
+  <si>
+    <t>gain health for X turns</t>
+  </si>
+  <si>
+    <t>gain armour for X turns</t>
+  </si>
+  <si>
+    <t>play random card from deck</t>
+  </si>
+  <si>
+    <t>gain strength/agil/int for X turns</t>
+  </si>
+  <si>
+    <t>if played card of category last turn, gain something</t>
+  </si>
+  <si>
+    <t>X turns, deal damage to all characters in range, can't attack or move</t>
+  </si>
+  <si>
+    <t>X turns, heal to all characters in range, can't attack or move</t>
+  </si>
+  <si>
+    <t>deal small damage to multiple targets</t>
+  </si>
+  <si>
+    <t>take card from character</t>
+  </si>
+  <si>
+    <t>copy opponents hand</t>
+  </si>
+  <si>
+    <t>whenever yoi play a card, gain a particularly powerful card</t>
+  </si>
+  <si>
+    <t>whenever character kills a player, immediately regain all movement and playable cards</t>
+  </si>
+  <si>
+    <t>Discard your entire hand and draw a new one.</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Give a character at range 2 +1 card to play this turn.</t>
+  </si>
+  <si>
+    <t>Slow Pace</t>
+  </si>
+  <si>
+    <t>Revive</t>
+  </si>
+  <si>
+    <t>Mass Heal</t>
+  </si>
+  <si>
+    <t>Give all characters in range 2 +2 health</t>
+  </si>
+  <si>
+    <t>Ply</t>
+  </si>
+  <si>
+    <t>Cure</t>
+  </si>
+  <si>
+    <t>Remove all conditions from a character within 3.</t>
+  </si>
+  <si>
+    <t>At the end of the round, do 1 damage to all characters in range 2.</t>
+  </si>
+  <si>
+    <t>Hellfire</t>
+  </si>
+  <si>
+    <t>Character at range 5 may take an additional turn immediately. This character plays 1 fewer card.</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>First Aid</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Fire Trap</t>
+  </si>
+  <si>
+    <t>If below half health, gain +100% Strength.</t>
+  </si>
+  <si>
+    <t>Inner Strength</t>
+  </si>
+  <si>
+    <t>Evade</t>
+  </si>
+  <si>
+    <t>Clumsy Stab</t>
+  </si>
+  <si>
+    <t>Bad Bandage</t>
+  </si>
+  <si>
+    <t>Awkward Distraction</t>
+  </si>
+  <si>
+    <t>Lame Taunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairie Fire </t>
+  </si>
+  <si>
+    <t>Slow Jog</t>
+  </si>
+  <si>
+    <t>Weak Cheer</t>
+  </si>
+  <si>
+    <t>Deal 120% Str (&lt;character.CurrentStrength&gt;) damage at range 1</t>
+  </si>
+  <si>
+    <t>Slightly Trained Stab</t>
+  </si>
+  <si>
+    <t>Prepared Stance</t>
+  </si>
+  <si>
+    <t>Decent Slice</t>
+  </si>
+  <si>
+    <t>Deal 120% Agi (&lt;character.CurrentAgility&gt;) damage at range 1.</t>
+  </si>
+  <si>
+    <t>Slipped Backstab</t>
+  </si>
+  <si>
+    <t>Deal 150% Agi (&lt;character.CurrentAgility&gt;) damage at range 1.</t>
+  </si>
+  <si>
+    <t>Does nothing. You need to train magic to use it!</t>
+  </si>
+  <si>
+    <t>Deal 100% Int (&lt;character.CurrentIntelligence&gt;) damage at range 5.</t>
+  </si>
+  <si>
+    <t>Arcane Missile</t>
+  </si>
+  <si>
+    <t>Heal 100% Int (&lt;character.CurrentIntelligence&gt;) to self.</t>
+  </si>
+  <si>
+    <t>Deal 100% Str (&lt;character.CurrentStrength&gt;) damage at range 1.</t>
+  </si>
+  <si>
+    <t>Apply a condition to yourself: Your next move gains +1 distance.</t>
+  </si>
+  <si>
+    <t>Apply a condition at range 3: Give another character +100% Str for 3 turns.</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>Strength, Damage, Melee</t>
+  </si>
+  <si>
+    <t>Agility, Damage, Melee</t>
+  </si>
+  <si>
+    <t>Intelligence, Healing</t>
+  </si>
+  <si>
+    <t>Intelligence, Magic</t>
+  </si>
+  <si>
+    <t>Intelligence, Damage, Ranged, Magic</t>
+  </si>
+  <si>
+    <t>Thump</t>
+  </si>
+  <si>
+    <t>Massive Strike</t>
+  </si>
+  <si>
+    <t>Wild Swing</t>
+  </si>
+  <si>
+    <t>Do 75% Str damage to all characters within range 1.</t>
+  </si>
+  <si>
+    <t>Leap</t>
+  </si>
+  <si>
+    <t>Move 4 and do 75% Str damage to all characters you move through.</t>
+  </si>
+  <si>
+    <t>Get Down</t>
+  </si>
+  <si>
+    <t>Ranged Shot</t>
+  </si>
+  <si>
+    <t>If you die, resurect at 2 health.</t>
+  </si>
+  <si>
+    <t>Preparation</t>
+  </si>
+  <si>
+    <t>The next card you play is played twice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cards that </t>
+  </si>
+  <si>
+    <t>Long Shot</t>
+  </si>
+  <si>
+    <t>Watchful</t>
+  </si>
+  <si>
+    <t>If an enemy character tries to leave range 1 of you, deal 150% Str damage to it.</t>
+  </si>
+  <si>
+    <t>Demonbolt</t>
+  </si>
+  <si>
+    <t>Lose 1 Health, deal 100-300% Intelligence damage at range 2</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Gain +2 movement.</t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>Give a character 500% Intelligence health at range 1.</t>
+  </si>
+  <si>
+    <t>Support, Healing, Intelligence</t>
+  </si>
+  <si>
+    <t>Support, Defense, Self</t>
+  </si>
+  <si>
+    <t>Support, Self, Evade</t>
+  </si>
+  <si>
+    <t>Apply a condition to yourself: Gain +100% Evade for 3 turns.</t>
+  </si>
+  <si>
+    <t>Apply a condition to yourself: Gain 100% Defense for 3 turns.</t>
+  </si>
+  <si>
+    <t>force character to attack only one other character</t>
+  </si>
+  <si>
+    <t>Apply a condition at range 5: Give another character -200% Evade for 3 turns.</t>
+  </si>
+  <si>
+    <t>Support, Ranged, Debuff</t>
+  </si>
+  <si>
+    <t>Earthquake</t>
+  </si>
+  <si>
+    <t>Deal 50% Intelligence damage to all characters.</t>
+  </si>
+  <si>
+    <t>Gust</t>
+  </si>
+  <si>
+    <t>Play one less card next, give all characters within 3 +1 Defense for 3 turns.</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Gain +2 movement, gain +100% Strength on your next attack.</t>
+  </si>
+  <si>
+    <t>Flame Wall</t>
+  </si>
+  <si>
+    <t>Pick 2 points, if any characters walk between that line, deal 150% Intelligence damage.</t>
+  </si>
+  <si>
+    <t>Frostbite</t>
+  </si>
+  <si>
+    <t>Give another character -1 Movement, deal 50% Intelligence damage.</t>
+  </si>
+  <si>
+    <t>Freeze</t>
+  </si>
+  <si>
+    <t>Target character plays 1 fewer card next.</t>
+  </si>
+  <si>
+    <t>Healbot</t>
+  </si>
+  <si>
+    <t>Give all characters in range 2 +1 health for 3 turns.</t>
+  </si>
+  <si>
+    <t>Tunneller</t>
+  </si>
+  <si>
+    <t>Gain +5 movement this turn.</t>
+  </si>
+  <si>
+    <t>Gain +10 movement this turn. Lose 5 movement next turn.</t>
+  </si>
+  <si>
+    <t>Practiced</t>
+  </si>
+  <si>
+    <t>If a character moves within range 1 of you, deal 150% Strength damage to it.</t>
+  </si>
+  <si>
+    <t>Cloak</t>
+  </si>
+  <si>
+    <t>Give another character +100 Evade.</t>
+  </si>
+  <si>
+    <t>Skilled Backstab</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Give character within 1 -1 Health every turn for 3 turns.</t>
+  </si>
+  <si>
+    <t>Rousing</t>
+  </si>
+  <si>
+    <t>Careful Shot</t>
+  </si>
+  <si>
+    <t>Do 100% Agility damage to within 5, ignoring Defense.</t>
+  </si>
+  <si>
+    <t>Watchful Shot</t>
+  </si>
+  <si>
+    <t>If an enemy character moves within 5 before your next turn, do 200% Agility damage to them.</t>
+  </si>
+  <si>
+    <t>Spry Song</t>
+  </si>
+  <si>
+    <t>Gain +100% Agility, +100% Evade.</t>
+  </si>
+  <si>
+    <t>Play Dead</t>
+  </si>
+  <si>
+    <t>Taunt</t>
+  </si>
+  <si>
+    <t>Understudy</t>
+  </si>
+  <si>
+    <t>Draw 2 cards.</t>
+  </si>
+  <si>
+    <t>Menacing</t>
+  </si>
+  <si>
+    <t>Quick Punch</t>
+  </si>
+  <si>
+    <t>Practice Shot</t>
+  </si>
+  <si>
+    <t>Do 25% Agility damage at range 5, next shot does 150% Agility damage to the same character.</t>
+  </si>
+  <si>
+    <t>Agility, Evade, Self</t>
+  </si>
+  <si>
+    <t>Support, Duration</t>
+  </si>
+  <si>
+    <t>Give friendly characters within 2 +100% Strength, Agility and Intelligence for 3 turns.</t>
+  </si>
+  <si>
+    <t>Gain 300% Evade for 3 turns.</t>
+  </si>
+  <si>
+    <t>Support, Duration, Debuff</t>
+  </si>
+  <si>
+    <t>Give friendly characters within 3 +100% Evade for 3 turns.</t>
+  </si>
+  <si>
+    <t>Heal characters within 2 +100% Intelligence every turn for 3 turns.</t>
+  </si>
+  <si>
+    <t>Give 1 character within 2 +200 Str, +200 Agi, -200 Int for 3 turns. When ending, give -200 Str, -200 Agi for 2 turns.</t>
+  </si>
+  <si>
+    <t>Debuff, Healing, Duration</t>
+  </si>
+  <si>
+    <t>Movement, Self</t>
+  </si>
+  <si>
+    <t>Duration, Healing</t>
+  </si>
+  <si>
+    <t>Area, Defense</t>
+  </si>
+  <si>
+    <t>Movement, Support, Self</t>
+  </si>
+  <si>
+    <t>Healing, Self</t>
+  </si>
+  <si>
+    <t>Options, Self</t>
+  </si>
+  <si>
+    <t>Support, Ranged</t>
+  </si>
+  <si>
+    <t>Give all enemy characters within 3 -1 Movement for 3 turns.</t>
+  </si>
+  <si>
+    <t>Debuff, Movement, Duration</t>
+  </si>
+  <si>
+    <t>Support, Duration, Ranged</t>
+  </si>
+  <si>
+    <t>Give a character at range 5 +2 Evade for 3 turns.</t>
+  </si>
+  <si>
+    <t>Damage, Ranged</t>
+  </si>
+  <si>
+    <t>Self, Defense</t>
+  </si>
+  <si>
+    <t>Gain 500% Defense for 3 turns.</t>
+  </si>
+  <si>
+    <t>Debuff, Reckless</t>
+  </si>
+  <si>
+    <t>Movement, Area, Strength</t>
+  </si>
+  <si>
+    <t>Intelligence, Ranged</t>
+  </si>
+  <si>
+    <t>Agility, Strength, Ranged, Reckless</t>
+  </si>
+  <si>
+    <t>Agilty, Damage, Focus</t>
+  </si>
+  <si>
+    <t>Set 2 points within range 2 for 3 turns, anyone crossing that line can't move for 2 turns.</t>
+  </si>
+  <si>
+    <t>Set 2 points within range 2 for 3 turns, anyone crossing that line takes 100% agility damage.</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Strength, Ranged, Damage</t>
+  </si>
+  <si>
+    <t>Lose 75% Evade, do 200% Str damage at range 1.</t>
+  </si>
+  <si>
+    <t>Deal 150% Strength damage at range 1, draw a card.</t>
+  </si>
+  <si>
+    <t>Strength, Options, Damage, Melee</t>
+  </si>
+  <si>
+    <t>Deal 200% Strength damage at range 1, play 1 fewer card, lose 2 movement.</t>
+  </si>
+  <si>
+    <t>Damage, Strength, Options, Movement, Melee</t>
+  </si>
+  <si>
+    <t>Damage, Agility, Melee</t>
+  </si>
+  <si>
+    <t>Do 200% Agility damage at range 1 when behind a character.</t>
+  </si>
+  <si>
+    <t>Force an enemy character within 5 to be chosen to go next.</t>
+  </si>
+  <si>
+    <t>Move 2 and do 100% Strength damage at range 1.</t>
+  </si>
+  <si>
+    <t>Strength, Movement, Damage</t>
+  </si>
+  <si>
+    <t>Area, Strength</t>
+  </si>
+  <si>
+    <t>Strength, Healing, Self</t>
+  </si>
+  <si>
+    <t>Area, Intelligence, Damage</t>
+  </si>
+  <si>
+    <t>Movement, Intelligence, Debuff</t>
+  </si>
+  <si>
+    <t>Options, Debuff</t>
+  </si>
+  <si>
+    <t>Healing, Ranged</t>
+  </si>
+  <si>
+    <t>Bring character back to life at range 1.</t>
+  </si>
+  <si>
+    <t>Healing, Area</t>
+  </si>
+  <si>
+    <t>Healing, Support, Debuff</t>
+  </si>
+  <si>
+    <t>Healing, Duration</t>
+  </si>
+  <si>
+    <t>Options, Defense, Support, Duration</t>
+  </si>
+  <si>
+    <t>Intellgence, Ranged</t>
+  </si>
+  <si>
+    <t>Push a character within 5, 1 square directly away from you.</t>
+  </si>
+  <si>
+    <t>Movement, Debuff, Ranged</t>
+  </si>
+  <si>
+    <t>Give a character within 5 -2 movement for 3 turns.</t>
+  </si>
+  <si>
+    <t>Options, Support</t>
+  </si>
+  <si>
+    <t>Debuff, Options</t>
+  </si>
+  <si>
+    <t>Options, Ranged.</t>
+  </si>
+  <si>
+    <t>Reckless, Intelligence, Self</t>
+  </si>
+  <si>
+    <t>Options, Reckless</t>
+  </si>
+  <si>
+    <t>Reckless, Intelligence, Damage</t>
+  </si>
+  <si>
+    <t>Movement, Self, Strength, Focus</t>
+  </si>
+  <si>
+    <t>Area, Defense, Damage, Focus</t>
+  </si>
+  <si>
+    <t>Defense, Damage, Strength, Melee, Focus</t>
+  </si>
+  <si>
+    <t>Duration, Self, Options, Focus</t>
+  </si>
+  <si>
+    <t>Strength, Reckless, Damage, Focus</t>
+  </si>
+  <si>
+    <t>Strength, Evade, Damage, Melee, Reckless</t>
+  </si>
+  <si>
+    <t>Movement, Self, Debuff, Focus</t>
+  </si>
+  <si>
+    <t>Strength, Damage, Melee, Reckless</t>
+  </si>
+  <si>
+    <t>Int, Reckless, Magic</t>
+  </si>
+  <si>
+    <t>Int, Movement, Magic</t>
+  </si>
+  <si>
+    <t>Int, Ranged, Magic</t>
+  </si>
+  <si>
+    <t>Int, Healing, Magic</t>
+  </si>
+  <si>
+    <t>Int, Damage, Magic</t>
   </si>
 </sst>
 </file>
@@ -424,10 +1359,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,21 +1682,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833E98C1-155B-46CD-9345-71B4DED35CD4}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -788,229 +1732,232 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="H19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
         <v>50</v>
       </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -1023,16 +1970,16 @@
       <c r="E22" t="s">
         <v>81</v>
       </c>
-      <c r="H22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>52</v>
@@ -1043,13 +1990,16 @@
       <c r="E23" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
         <v>53</v>
@@ -1060,10 +2010,16 @@
       <c r="E24" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -1074,10 +2030,16 @@
       <c r="E25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
@@ -1088,10 +2050,16 @@
       <c r="E26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
         <v>56</v>
@@ -1102,10 +2070,16 @@
       <c r="E27" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
@@ -1116,8 +2090,17 @@
       <c r="E28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
       <c r="C29" t="s">
         <v>58</v>
       </c>
@@ -1127,8 +2110,17 @@
       <c r="E29" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" t="s">
         <v>59</v>
       </c>
@@ -1138,8 +2130,17 @@
       <c r="E30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
       <c r="C31" t="s">
         <v>60</v>
       </c>
@@ -1149,8 +2150,17 @@
       <c r="E31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
       <c r="C32" t="s">
         <v>61</v>
       </c>
@@ -1160,8 +2170,17 @@
       <c r="E32" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
       <c r="C33" t="s">
         <v>62</v>
       </c>
@@ -1171,38 +2190,71 @@
       <c r="E33" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" t="s">
-        <v>95</v>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1213,270 +2265,1380 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86656FBC-7A08-4294-A713-C6003B80014C}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" t="s">
+        <v>387</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>332</v>
+      </c>
+      <c r="D18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" t="s">
+        <v>356</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" t="s">
+        <v>355</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>339</v>
+      </c>
+      <c r="D22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>377</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" t="s">
+        <v>378</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" t="s">
+        <v>338</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" t="s">
+        <v>325</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>341</v>
+      </c>
+      <c r="D28" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D29" t="s">
+        <v>340</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>343</v>
+      </c>
+      <c r="D30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" t="s">
+        <v>384</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" t="s">
+        <v>328</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33" t="s">
+        <v>365</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34" t="s">
+        <v>382</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" t="s">
+        <v>301</v>
+      </c>
+      <c r="E35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36" t="s">
+        <v>290</v>
+      </c>
+      <c r="E36" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>286</v>
+      </c>
+      <c r="D38" t="s">
+        <v>368</v>
+      </c>
+      <c r="E38" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>371</v>
+      </c>
+      <c r="E39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>293</v>
+      </c>
+      <c r="D40" t="s">
+        <v>294</v>
+      </c>
+      <c r="E40" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>342</v>
+      </c>
+      <c r="D41" t="s">
+        <v>388</v>
+      </c>
+      <c r="E41" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>292</v>
+      </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>347</v>
+      </c>
+      <c r="D46" t="s">
+        <v>348</v>
+      </c>
+      <c r="E46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>281</v>
+      </c>
+      <c r="D47" t="s">
+        <v>381</v>
+      </c>
+      <c r="E47" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48" t="s">
+        <v>389</v>
+      </c>
+      <c r="E48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" t="s">
+        <v>283</v>
+      </c>
+      <c r="E49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D50" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>424</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" t="s">
+        <v>317</v>
+      </c>
+      <c r="E52" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>318</v>
+      </c>
+      <c r="D53" t="s">
+        <v>319</v>
+      </c>
+      <c r="E53" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>320</v>
+      </c>
+      <c r="D54" t="s">
+        <v>321</v>
+      </c>
+      <c r="E54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>423</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" t="s">
+        <v>397</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>241</v>
+      </c>
+      <c r="D58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E58" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" t="s">
+        <v>313</v>
+      </c>
+      <c r="E59" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>322</v>
+      </c>
+      <c r="D60" t="s">
+        <v>323</v>
+      </c>
+      <c r="E60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>324</v>
+      </c>
+      <c r="D61" t="s">
+        <v>326</v>
+      </c>
+      <c r="E61" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>329</v>
+      </c>
+      <c r="D62" t="s">
+        <v>330</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>422</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" t="s">
+        <v>157</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" t="s">
+        <v>311</v>
+      </c>
+      <c r="E65" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>312</v>
+      </c>
+      <c r="D66" t="s">
+        <v>403</v>
+      </c>
+      <c r="E66" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>421</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" t="s">
+        <v>405</v>
+      </c>
+      <c r="E67" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" t="s">
+        <v>235</v>
+      </c>
+      <c r="E68" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>246</v>
+      </c>
+      <c r="D70" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>420</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C71" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>110</v>
+      <c r="E71" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>244</v>
+      </c>
+      <c r="D73" t="s">
+        <v>243</v>
+      </c>
+      <c r="E73" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>295</v>
+      </c>
+      <c r="D74" t="s">
+        <v>296</v>
+      </c>
+      <c r="E74" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D013C00-0912-47F0-8D11-200C1BB98FFB}">
+  <dimension ref="C1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\GameThing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07ABD69-822B-47BE-BCCB-2F79B25A384B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF6CDBB-19C6-41EF-BCC6-82ECA490705B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B43DC27E-312F-4ABF-897F-B8623FBBEEFC}"/>
   </bookViews>
@@ -974,9 +974,6 @@
     <t>Gust</t>
   </si>
   <si>
-    <t>Play one less card next, give all characters within 3 +1 Defense for 3 turns.</t>
-  </si>
-  <si>
     <t>Ready</t>
   </si>
   <si>
@@ -1308,6 +1305,9 @@
   </si>
   <si>
     <t>Int, Damage, Magic</t>
+  </si>
+  <si>
+    <t>Play one less card next, give all characters within 3 +100% Defense for 3 turns.</t>
   </si>
 </sst>
 </file>
@@ -1688,19 +1688,19 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>95</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>36</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>100</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>101</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>102</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>103</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>61</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>85</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>104</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>45</v>
       </c>
@@ -2197,62 +2197,62 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>39</v>
       </c>
@@ -2267,21 +2267,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86656FBC-7A08-4294-A713-C6003B80014C}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>135</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
         <v>274</v>
@@ -2313,13 +2313,13 @@
         <v>271</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
         <v>274</v>
@@ -2337,7 +2337,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
         <v>274</v>
@@ -2355,7 +2355,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
         <v>274</v>
@@ -2373,7 +2373,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="6" t="s">
         <v>274</v>
@@ -2385,13 +2385,13 @@
         <v>272</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
         <v>274</v>
@@ -2403,13 +2403,13 @@
         <v>273</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -2427,7 +2427,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
         <v>18</v>
@@ -2445,7 +2445,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="6" t="s">
         <v>19</v>
@@ -2463,7 +2463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="6" t="s">
         <v>19</v>
@@ -2481,7 +2481,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
         <v>20</v>
@@ -2499,7 +2499,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="6" t="s">
         <v>20</v>
@@ -2517,13 +2517,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -2534,46 +2534,46 @@
         <v>252</v>
       </c>
       <c r="D15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>289</v>
       </c>
       <c r="D16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>331</v>
       </c>
-      <c r="D17" t="s">
-        <v>387</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>332</v>
       </c>
-      <c r="D18" t="s">
-        <v>333</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -2584,46 +2584,46 @@
         <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>240</v>
       </c>
       <c r="D20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" t="s">
+        <v>354</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>334</v>
-      </c>
-      <c r="D21" t="s">
-        <v>355</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>339</v>
-      </c>
-      <c r="D22" t="s">
-        <v>354</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -2634,46 +2634,46 @@
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>249</v>
       </c>
       <c r="D24" t="s">
+        <v>377</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" t="s">
         <v>335</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>336</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>337</v>
       </c>
-      <c r="D26" t="s">
-        <v>338</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -2684,46 +2684,46 @@
         <v>155</v>
       </c>
       <c r="D27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D28" t="s">
         <v>288</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" t="s">
+        <v>339</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>342</v>
+      </c>
+      <c r="D30" t="s">
+        <v>343</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>327</v>
-      </c>
-      <c r="D29" t="s">
-        <v>340</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>343</v>
-      </c>
-      <c r="D30" t="s">
-        <v>344</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -2734,46 +2734,46 @@
         <v>280</v>
       </c>
       <c r="D31" t="s">
+        <v>383</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
+        <v>344</v>
+      </c>
+      <c r="D33" t="s">
+        <v>364</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>345</v>
       </c>
-      <c r="D33" t="s">
-        <v>365</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>346</v>
-      </c>
       <c r="D34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>141</v>
       </c>
@@ -2790,18 +2790,18 @@
         <v>302</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D36" t="s">
         <v>290</v>
       </c>
       <c r="E36" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>300</v>
       </c>
@@ -2809,21 +2809,21 @@
         <v>299</v>
       </c>
       <c r="E37" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>286</v>
       </c>
       <c r="D38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E38" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2834,13 +2834,13 @@
         <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E39" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>293</v>
       </c>
@@ -2848,21 +2848,21 @@
         <v>294</v>
       </c>
       <c r="E40" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E41" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>248</v>
       </c>
@@ -2870,10 +2870,10 @@
         <v>285</v>
       </c>
       <c r="E42" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>287</v>
       </c>
@@ -2898,10 +2898,10 @@
         <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>292</v>
       </c>
@@ -2909,21 +2909,21 @@
         <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
+        <v>346</v>
+      </c>
+      <c r="D46" t="s">
         <v>347</v>
       </c>
-      <c r="D46" t="s">
-        <v>348</v>
-      </c>
       <c r="E46" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -2934,24 +2934,24 @@
         <v>281</v>
       </c>
       <c r="D47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E47" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>284</v>
       </c>
       <c r="D48" t="s">
+        <v>388</v>
+      </c>
+      <c r="E48" t="s">
         <v>389</v>
       </c>
-      <c r="E48" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>282</v>
       </c>
@@ -2959,10 +2959,10 @@
         <v>283</v>
       </c>
       <c r="E49" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>251</v>
       </c>
@@ -2970,12 +2970,12 @@
         <v>250</v>
       </c>
       <c r="E50" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>30</v>
@@ -2987,45 +2987,45 @@
         <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
+        <v>315</v>
+      </c>
+      <c r="D52" t="s">
         <v>316</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>317</v>
       </c>
-      <c r="E52" t="s">
+      <c r="D53" t="s">
+        <v>318</v>
+      </c>
+      <c r="E53" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>318</v>
-      </c>
-      <c r="D53" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>319</v>
       </c>
-      <c r="E53" t="s">
+      <c r="D54" t="s">
+        <v>320</v>
+      </c>
+      <c r="E54" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>320</v>
-      </c>
-      <c r="D54" t="s">
-        <v>321</v>
-      </c>
-      <c r="E54" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>29</v>
@@ -3037,21 +3037,21 @@
         <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>238</v>
       </c>
@@ -3059,10 +3059,10 @@
         <v>239</v>
       </c>
       <c r="E57" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>241</v>
       </c>
@@ -3070,10 +3070,10 @@
         <v>242</v>
       </c>
       <c r="E58" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>145</v>
       </c>
@@ -3084,48 +3084,48 @@
         <v>151</v>
       </c>
       <c r="D59" t="s">
-        <v>313</v>
+        <v>424</v>
       </c>
       <c r="E59" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
+        <v>321</v>
+      </c>
+      <c r="D60" t="s">
         <v>322</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>323</v>
       </c>
-      <c r="E60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>324</v>
-      </c>
       <c r="D61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E61" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
+        <v>328</v>
+      </c>
+      <c r="D62" t="s">
         <v>329</v>
-      </c>
-      <c r="D62" t="s">
-        <v>330</v>
       </c>
       <c r="E62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>34</v>
@@ -3137,10 +3137,10 @@
         <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>160</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>310</v>
       </c>
@@ -3159,23 +3159,23 @@
         <v>311</v>
       </c>
       <c r="E65" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>312</v>
       </c>
       <c r="D66" t="s">
+        <v>402</v>
+      </c>
+      <c r="E66" t="s">
         <v>403</v>
       </c>
-      <c r="E66" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>35</v>
@@ -3184,13 +3184,13 @@
         <v>236</v>
       </c>
       <c r="D67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E67" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>154</v>
       </c>
@@ -3198,10 +3198,10 @@
         <v>235</v>
       </c>
       <c r="E68" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>163</v>
       </c>
@@ -3209,10 +3209,10 @@
         <v>162</v>
       </c>
       <c r="E69" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>246</v>
       </c>
@@ -3220,12 +3220,12 @@
         <v>245</v>
       </c>
       <c r="E70" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>33</v>
@@ -3237,10 +3237,10 @@
         <v>96</v>
       </c>
       <c r="E71" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>234</v>
       </c>
@@ -3248,10 +3248,10 @@
         <v>233</v>
       </c>
       <c r="E72" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>244</v>
       </c>
@@ -3259,10 +3259,10 @@
         <v>243</v>
       </c>
       <c r="E73" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>295</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>296</v>
       </c>
       <c r="E74" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -3287,9 +3287,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>166</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>167</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>168</v>
       </c>
@@ -3313,327 +3313,327 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>307</v>
       </c>
